--- a/Data/aearep-103/candidatepackages.xlsx
+++ b/Data/aearep-103/candidatepackages.xlsx
@@ -28,12 +28,12 @@
     <t>center</t>
   </si>
   <si>
+    <t>geodist</t>
+  </si>
+  <si>
     <t>avar</t>
   </si>
   <si>
-    <t>geodist</t>
-  </si>
-  <si>
     <t>jb</t>
   </si>
   <si>
@@ -46,21 +46,24 @@
     <t>lambda</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>mpi</t>
   </si>
   <si>
+    <t>poverty</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -73,64 +76,61 @@
     <t>white</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>geocode</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
     <t>python</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>heart</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>rscript</t>
   </si>
   <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>gets</t>
+  </si>
+  <si>
     <t>timestamp</t>
   </si>
   <si>
-    <t>gets</t>
+    <t>subset</t>
   </si>
   <si>
     <t>usd</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>switch</t>
-  </si>
-  <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>subset</t>
   </si>
   <si>
     <t>mint</t>
@@ -325,7 +325,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -337,7 +337,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -349,7 +349,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -361,7 +361,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -409,10 +409,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C10">
-        <v>0.13826259970664978</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D10"/>
     </row>
@@ -421,10 +421,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C11">
-        <v>0.16644562780857086</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D11"/>
     </row>
@@ -433,10 +433,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C12">
-        <v>0.16677719354629517</v>
+        <v>0.17289255559444427</v>
       </c>
       <c r="D12"/>
     </row>
@@ -445,10 +445,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="C13">
-        <v>0.18700265884399414</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D13"/>
     </row>
@@ -457,10 +457,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C14">
-        <v>0.18733422458171844</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D14"/>
     </row>
@@ -469,10 +469,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C15">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D15"/>
     </row>
@@ -481,10 +481,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C16">
-        <v>0.20092837512493134</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D16"/>
     </row>
@@ -493,10 +493,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="C17">
-        <v>0.22513262927532196</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D17"/>
     </row>
@@ -505,10 +505,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="C18">
-        <v>0.23010610044002533</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D18"/>
     </row>
@@ -517,10 +517,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D19"/>
     </row>
@@ -529,10 +529,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="C20">
-        <v>0.26889920234680176</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D20"/>
     </row>
@@ -541,10 +541,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="C21">
-        <v>0.27088859677314758</v>
+        <v>0.27933883666992188</v>
       </c>
       <c r="D21"/>
     </row>
@@ -553,10 +553,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="C22">
-        <v>0.3017241358757019</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D22"/>
     </row>
@@ -565,10 +565,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1049</v>
+        <v>885</v>
       </c>
       <c r="C23">
-        <v>0.34781166911125183</v>
+        <v>0.29256197810173035</v>
       </c>
       <c r="D23"/>
     </row>
@@ -577,10 +577,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1077</v>
+        <v>955</v>
       </c>
       <c r="C24">
-        <v>0.35709547996520996</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D24"/>
     </row>
@@ -589,10 +589,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D25"/>
     </row>
@@ -601,10 +601,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C26">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D26"/>
     </row>
@@ -613,10 +613,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1270</v>
+        <v>1306</v>
       </c>
       <c r="C27">
-        <v>0.42108753323554993</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D27"/>
     </row>
@@ -625,10 +625,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="C28">
-        <v>0.47181698679924011</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D28"/>
     </row>
@@ -637,10 +637,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1472</v>
+        <v>1428</v>
       </c>
       <c r="C29">
-        <v>0.48806366324424744</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D29"/>
     </row>
@@ -649,10 +649,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1553</v>
+        <v>1497</v>
       </c>
       <c r="C30">
-        <v>0.51492041349411011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D30"/>
     </row>
@@ -661,10 +661,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1660</v>
+        <v>1571</v>
       </c>
       <c r="C31">
-        <v>0.55039787292480469</v>
+        <v>0.51933884620666504</v>
       </c>
       <c r="D31"/>
     </row>
@@ -673,10 +673,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1859</v>
+        <v>1658</v>
       </c>
       <c r="C32">
-        <v>0.61637932062149048</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D32"/>
     </row>
@@ -685,10 +685,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1890</v>
+        <v>1724</v>
       </c>
       <c r="C33">
-        <v>0.62665784358978271</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D33"/>
     </row>
@@ -697,10 +697,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1960</v>
+        <v>1865</v>
       </c>
       <c r="C34">
-        <v>0.64986735582351685</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D34"/>
     </row>
@@ -709,10 +709,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1965</v>
+        <v>1936</v>
       </c>
       <c r="C35">
-        <v>0.65152519941329956</v>
+        <v>0.63999998569488525</v>
       </c>
       <c r="D35"/>
     </row>
@@ -721,10 +721,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2217</v>
+        <v>1974</v>
       </c>
       <c r="C36">
-        <v>0.73507958650588989</v>
+        <v>0.65256196260452271</v>
       </c>
       <c r="D36"/>
     </row>
@@ -733,10 +733,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2367</v>
+        <v>2008</v>
       </c>
       <c r="C37">
-        <v>0.78481429815292358</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D37"/>
     </row>
@@ -745,10 +745,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C38">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D38"/>
     </row>
@@ -757,10 +757,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2511</v>
+        <v>2806</v>
       </c>
       <c r="C39">
-        <v>0.83255970478057861</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D39"/>
     </row>
@@ -769,10 +769,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2903</v>
+        <v>2913</v>
       </c>
       <c r="C40">
-        <v>0.96253317594528198</v>
+        <v>0.96297520399093628</v>
       </c>
       <c r="D40"/>
     </row>
